--- a/tests/fixtures/2021-2023-AFG Protection in Danger Incident Data.xlsx
+++ b/tests/fixtures/2021-2023-AFG Protection in Danger Incident Data.xlsx
@@ -14,174 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Event Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Country</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Country ISO</t>
   </si>
   <si>
-    <t>Admin 1</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Geo Precision</t>
-  </si>
-  <si>
-    <t>Camp Name</t>
-  </si>
-  <si>
-    <t>Reported Perpetrator</t>
-  </si>
-  <si>
-    <t>Reported Perpetrator Name</t>
-  </si>
-  <si>
-    <t>Weapon Carried/Used</t>
-  </si>
-  <si>
-    <t>Protection Event Context</t>
-  </si>
-  <si>
-    <t>Victim of Violence</t>
-  </si>
-  <si>
-    <t>Survivor or Victim Sex</t>
-  </si>
-  <si>
-    <t>Survivor or Victim Minor</t>
-  </si>
-  <si>
-    <t>Number of Attacks on Camps Reporting Destruction</t>
-  </si>
-  <si>
-    <t>Number of Attacks on Camps Reporting Damaged</t>
-  </si>
-  <si>
-    <t>Camp Resident Killed</t>
-  </si>
-  <si>
-    <t>Camp Resident Injured</t>
-  </si>
-  <si>
-    <t>Camp Residents Kidnapped</t>
-  </si>
-  <si>
-    <t>Camp Residents Arrested</t>
-  </si>
-  <si>
-    <t>Camp Residents Targeted with CRSV</t>
-  </si>
-  <si>
-    <t>Service Provider Killed</t>
-  </si>
-  <si>
-    <t>Service Provider Kidnapped</t>
-  </si>
-  <si>
-    <t>Service Provider Arrested</t>
-  </si>
-  <si>
-    <t>Service Provider Targeted with CRSV</t>
-  </si>
-  <si>
-    <t>SiND ID</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Number Of Events</t>
+  </si>
+  <si>
+    <t>Number of incidents involving state perpetrators</t>
+  </si>
+  <si>
+    <t>Number of incidents involving non-state perpetrators</t>
+  </si>
+  <si>
+    <t>Number of events involving shelling/airstrikes</t>
+  </si>
+  <si>
+    <t>Number of events involving firearms</t>
+  </si>
+  <si>
+    <t>Number of events involving arson</t>
+  </si>
+  <si>
+    <t>Total number of camp infastructure damaged/destroyed</t>
+  </si>
+  <si>
+    <t>Total number of camp residents killed</t>
+  </si>
+  <si>
+    <t>Total number of service providers killed</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
-  </si>
-  <si>
-    <t>Kabul Province</t>
-  </si>
-  <si>
-    <t>Baghlan Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3) District, Communicipality or Commune </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) 25 km Precision </t>
-  </si>
-  <si>
-    <t>Unnamed Camp</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Host Government: Military</t>
-  </si>
-  <si>
-    <t>Criminal</t>
-  </si>
-  <si>
-    <t>Islamic Emirate of Afghanistan</t>
-  </si>
-  <si>
-    <t>Firearms</t>
-  </si>
-  <si>
-    <t>No Information on the Weapon Used</t>
-  </si>
-  <si>
-    <t>Targetted Attack on Camp</t>
-  </si>
-  <si>
-    <t>Violence Against Aid Operator</t>
-  </si>
-  <si>
-    <t>Camp Resident</t>
-  </si>
-  <si>
-    <t>Aid Worker</t>
-  </si>
-  <si>
-    <t>No Information</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>40466</t>
-  </si>
-  <si>
-    <t>29601</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -211,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,225 +430,81 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="1">
-        <v>45117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>34.5</v>
-      </c>
-      <c r="G2">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
